--- a/Milestone3/Alternate Scheduling/EachProductThroughput_A2.xlsx
+++ b/Milestone3/Alternate Scheduling/EachProductThroughput_A2.xlsx
@@ -461,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.313</v>
+        <v>2.412</v>
       </c>
       <c r="C2" t="n">
-        <v>1.353</v>
+        <v>1.398</v>
       </c>
       <c r="D2" t="n">
-        <v>1.377</v>
+        <v>1.401</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.202</v>
+        <v>2.313</v>
       </c>
       <c r="C3" t="n">
-        <v>1.386</v>
+        <v>1.338</v>
       </c>
       <c r="D3" t="n">
-        <v>1.464</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.313</v>
+        <v>2.298</v>
       </c>
       <c r="C4" t="n">
-        <v>1.425</v>
+        <v>1.398</v>
       </c>
       <c r="D4" t="n">
-        <v>1.269</v>
+        <v>1.392</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.1</v>
+        <v>2.256</v>
       </c>
       <c r="C5" t="n">
-        <v>1.464</v>
+        <v>1.446</v>
       </c>
       <c r="D5" t="n">
-        <v>1.422</v>
+        <v>1.449</v>
       </c>
     </row>
     <row r="6">
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.442</v>
+        <v>2.121</v>
       </c>
       <c r="C6" t="n">
-        <v>1.323</v>
+        <v>1.416</v>
       </c>
       <c r="D6" t="n">
-        <v>1.362</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.205</v>
+        <v>2.514</v>
       </c>
       <c r="C7" t="n">
-        <v>1.533</v>
+        <v>1.35</v>
       </c>
       <c r="D7" t="n">
-        <v>1.449</v>
+        <v>1.353</v>
       </c>
     </row>
     <row r="8">
@@ -545,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2.235</v>
+        <v>2.523</v>
       </c>
       <c r="C8" t="n">
-        <v>1.368</v>
+        <v>1.413</v>
       </c>
       <c r="D8" t="n">
-        <v>1.314</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="9">
@@ -559,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.409</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
         <v>1.407</v>
       </c>
       <c r="D9" t="n">
-        <v>1.356</v>
+        <v>1.407</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.598</v>
+        <v>2.349</v>
       </c>
       <c r="C10" t="n">
-        <v>1.26</v>
+        <v>1.434</v>
       </c>
       <c r="D10" t="n">
-        <v>1.404</v>
+        <v>1.437</v>
       </c>
     </row>
     <row r="11">
@@ -587,13 +587,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.451</v>
+        <v>2.439</v>
       </c>
       <c r="C11" t="n">
-        <v>1.32</v>
+        <v>1.374</v>
       </c>
       <c r="D11" t="n">
-        <v>1.464</v>
+        <v>1.377</v>
       </c>
     </row>
   </sheetData>
